--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>Test Adı</t>
   </si>
@@ -200,6 +204,21 @@
   </si>
   <si>
     <t>IDL-Trigliserid</t>
+  </si>
+  <si>
+    <t>Satır Etiketleri</t>
+  </si>
+  <si>
+    <t>(boş)</t>
+  </si>
+  <si>
+    <t>Genel Toplam</t>
+  </si>
+  <si>
+    <t>Sütun Etiketleri</t>
+  </si>
+  <si>
+    <t>(Birden Çok Öğe)</t>
   </si>
 </sst>
 </file>
@@ -218,15 +237,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,19 +277,340 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -257,6 +621,529 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Yazar" refreshedDate="45224.71279513889" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="33">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tablo2" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Test Adı" numFmtId="0">
+      <sharedItems count="33">
+        <s v="NMR Lipoporotein Profili"/>
+        <s v="Trigliserid"/>
+        <s v="Kolestrol, total"/>
+        <s v="Kolestrol, LDL"/>
+        <s v="Kolestrol, HDL"/>
+        <s v="Kolestrol, LDL/ Kolestrol, HDL Oranı"/>
+        <s v="Apolipoprotein A1"/>
+        <s v="Apolipoprotein A2"/>
+        <s v="Apolipoprotein B100"/>
+        <s v="Apo-B100 / Apo-A1 Oranı"/>
+        <s v="Total ApoB Taşıyan Partikül Sayısı, Total ApoB-P"/>
+        <s v="LDL Partikül Sayısı, LDL-P"/>
+        <s v="IDL Partikül Sayısı, IDL-P"/>
+        <s v="VLDL Partikül Sayısı, VLDL-P"/>
+        <s v="LDL ALT FRAKSİYONLARI"/>
+        <s v="LDL1-Partikül Sayısı"/>
+        <s v="LDL2-Partikül Sayısı"/>
+        <s v="LDL3-Partikül Sayısı"/>
+        <s v="LDL4-Partikül Sayısı"/>
+        <s v="LDL5-Partikül Sayısı"/>
+        <s v="LDL6-Partikül Sayısı"/>
+        <s v="ATEROJENİK LİPOPROTEİNLERDE APO-B100 VE TRİGLİSERİD"/>
+        <s v="LDL-Apo-B100"/>
+        <s v="IDL-Apo-B100"/>
+        <s v="VLDL-Apo-B100"/>
+        <s v="LDL-Trigliserid"/>
+        <s v="IDL-Trigliserid"/>
+        <s v="VLDL-Trigliserid"/>
+        <s v="LİPOPROTEİN KOLESTROL ESTERİFİKASYONU"/>
+        <s v="LDL Serbest Kolestrol"/>
+        <s v="HDL Serbest Kolestrol"/>
+        <s v="LDL-Serbest Kolestrol / LDL-Kolestrol"/>
+        <s v="HDL-Serbest Kolestrol / HDL-Kolestrol"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sonuç" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.24" maxValue="1270" count="30">
+        <s v="Sonuçlar için alt parametrelere bakınız. Teste ait dosya ektedir."/>
+        <n v="46"/>
+        <n v="214"/>
+        <n v="118"/>
+        <n v="88.5"/>
+        <n v="1.33"/>
+        <n v="195"/>
+        <n v="35.1"/>
+        <n v="69.8"/>
+        <n v="0.36"/>
+        <n v="1270"/>
+        <n v="1218"/>
+        <n v="30"/>
+        <n v="27.6"/>
+        <s v="Sonuçlar için alt parametrelere bakınız."/>
+        <n v="216"/>
+        <n v="237"/>
+        <n v="179"/>
+        <n v="120"/>
+        <n v="248"/>
+        <n v="67"/>
+        <n v="1.65"/>
+        <n v="1.52"/>
+        <n v="14.2"/>
+        <n v="0.85"/>
+        <n v="17.3"/>
+        <n v="37.5"/>
+        <n v="21.6"/>
+        <n v="0.32"/>
+        <n v="0.24"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Birim" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="mg/dL"/>
+        <s v="nmol/L"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Referans Değer" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="33">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="&lt;150 Optimal Düzey &gt;150 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="&lt;200 Optimal Düzey &gt;200 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="&lt;70 Kardiyovasküler Hastalığı Olanlarda Optimal Düzey &lt;100  Kardiyovasküler Hastalığı Olmayanlarda Optimal Düzey &gt;130 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="&lt;50 Optimal Düzey &gt;50 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="&lt;2 Optimal Düzey &gt;5 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <s v="&lt;0.6 Optimal Düzey &gt;0.8 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="&lt;1400 Optimal Düzey &gt;2000 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="2"/>
+    <s v="&lt;1000 Optimal Düzey &gt;1300 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="2"/>
+    <s v="&lt;70 Optimal Düzey &gt;100 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="2"/>
+    <s v="&lt;120 Optimal Düzey &gt;180 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="2"/>
+    <s v="&lt;140 Optimal Düzey &gt;190 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="&lt;150 Optimal Düzey &gt;200 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="16"/>
+    <x v="2"/>
+    <s v="&lt;190 Optimal Düzey &gt;260 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="17"/>
+    <x v="2"/>
+    <s v="&lt;230 Optimal Düzey &gt;330 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="18"/>
+    <x v="2"/>
+    <s v="&lt;290 Optimal Düzey &gt;400 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="19"/>
+    <x v="2"/>
+    <s v="&lt;300 Optimal Düzey &gt;450 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="14"/>
+    <x v="0"/>
+    <s v="&lt;150 Optimal Düzey &gt;150 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="20"/>
+    <x v="1"/>
+    <s v="&lt;70 Optimal Düzey &gt;100 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="21"/>
+    <x v="1"/>
+    <s v="&lt;4 Optimal Düzey &gt;6 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="22"/>
+    <x v="1"/>
+    <s v="&lt;6 Optimal Düzey &gt;10 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="23"/>
+    <x v="1"/>
+    <s v="&lt;24 Optimal Düzey &gt;28 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="24"/>
+    <x v="1"/>
+    <s v="&lt;6 Optimal Düzey &gt;10 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="25"/>
+    <x v="1"/>
+    <s v="&lt;60 Optimal Düzey &gt;90 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="14"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="26"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="27"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="28"/>
+    <x v="0"/>
+    <s v="&lt;0.5 Optimal Düzey &gt;=0.5 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="29"/>
+    <x v="0"/>
+    <s v="&lt;0.5 Optimal Düzey &gt;=0.5 Artmış Kardiovasküler Hastalık Riski"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Değerler" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="29"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="31"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="31">
+        <item x="29"/>
+        <item x="28"/>
+        <item x="9"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="27"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item h="1" x="14"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo2" displayName="Tablo2" ref="A1:D34" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D34"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Test Adı" dataDxfId="3"/>
+    <tableColumn id="2" name="Sonuç" dataDxfId="2"/>
+    <tableColumn id="3" name="Birim" dataDxfId="1"/>
+    <tableColumn id="4" name="Referans Değer" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,441 +1436,669 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>214</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>88.5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>1.33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>195</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
         <v>35.1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>69.8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>0.36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>1270</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="10">
         <v>1218</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10">
         <v>27.6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="10">
         <v>216</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="10">
         <v>214</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="10">
         <v>237</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="10">
         <v>179</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="10">
         <v>120</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="10">
         <v>248</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="10">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="11">
         <v>1.65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="11">
         <v>1.52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="10">
         <v>14.2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="10">
         <v>0.85</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="10">
         <v>17.3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="10">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="10">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="11">
         <v>0.32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="12">
         <v>0.24</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>